--- a/code/whole_experiment/25_steady_ex.xlsx
+++ b/code/whole_experiment/25_steady_ex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,28 +492,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.732961838423528</v>
+        <v>0.6728516174576609</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6047533632286995</v>
+        <v>0.5969615384615385</v>
       </c>
       <c r="D2" t="n">
-        <v>0.755173754411149</v>
+        <v>0.5542544832150121</v>
       </c>
       <c r="E2" t="n">
-        <v>0.755173754411149</v>
+        <v>0.616115942483645</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.5263313406652275</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0.8376392163005736</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.5439545709463025</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9806286950539865</v>
+        <v>0.7333106333232697</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -526,28 +526,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7685070877444824</v>
+        <v>0.7694513411523125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8486818507890961</v>
+        <v>0.6738393353565109</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8085070877444823</v>
+        <v>0.773772498200144</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8186818507890961</v>
+        <v>0.8084391648668106</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.7386666666666667</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0.8376392163005736</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.5439545709463025</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9806286950539865</v>
+        <v>0.7333106333232697</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -560,28 +560,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.718948814429911</v>
+        <v>0.2269217678046334</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.2091846602832518</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8356154810965777</v>
+        <v>0.2520252767606876</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8356154810965777</v>
+        <v>0.2608751317367669</v>
       </c>
       <c r="F4" t="n">
-        <v>0.718948814429911</v>
+        <v>0.2269217678046334</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.8376392163005736</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.5439545709463025</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9806286950539865</v>
+        <v>0.7333106333232697</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -594,28 +594,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7865834967029051</v>
+        <v>0.2008417232055476</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6918404210778157</v>
+        <v>0.0258602143215285</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8865353067047075</v>
+        <v>0.1542607869734934</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8865353067047075</v>
+        <v>0.1780916243521892</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8799168300362383</v>
+        <v>0.1991343635452534</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0.8376392163005736</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0.5439545709463025</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9806286950539865</v>
+        <v>0.7333106333232697</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -628,28 +628,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.755173754411149</v>
+        <v>0.3385536194875907</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9061326658322904</v>
+        <v>0.4347299909887769</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7685070877444824</v>
+        <v>0.3752932036034352</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7953485174557628</v>
+        <v>0.3985924682249637</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9032019733713742</v>
+        <v>0.3348902240438683</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0.8376392163005736</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.5439545709463025</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9806286950539865</v>
+        <v>0.7333106333232697</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -662,28 +662,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6484463986599664</v>
+        <v>0.3250787509438504</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8486818507890961</v>
+        <v>0.3802096751882404</v>
       </c>
       <c r="D7" t="n">
-        <v>0.755173754411149</v>
+        <v>0.3227819305917233</v>
       </c>
       <c r="E7" t="n">
-        <v>0.755173754411149</v>
+        <v>0.3370345329008705</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6484463986599664</v>
+        <v>0.3250787509438504</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.8376392163005736</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0.5439545709463025</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9806286950539865</v>
+        <v>0.7333106333232697</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -696,28 +696,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6000924115869912</v>
+        <v>0.03181785122799485</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5562105825761625</v>
+        <v>0.07474821073626364</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6732693105696841</v>
+        <v>0.03647042698824284</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6732693105696841</v>
+        <v>0.03647042698824284</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6000924115869912</v>
+        <v>0.03181785122799485</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.8376392163005736</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.5439545709463025</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9806286950539865</v>
+        <v>0.7333106333232697</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -730,28 +730,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7396285050901947</v>
+        <v>0.3358182572109186</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5951737544111491</v>
+        <v>0.2901968849199844</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7585070877444824</v>
+        <v>0.3915895383496567</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7585070877444824</v>
+        <v>0.3683004449405404</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7918404210778156</v>
+        <v>0.3223950381513833</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0.8376392163005736</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0.5439545709463025</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9806286950539865</v>
+        <v>0.7333106333232697</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -764,28 +764,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7640414938048898</v>
+        <v>0.5701526305094907</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8820436775411162</v>
+        <v>0.41488268207051</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7776714713678499</v>
+        <v>0.4969681279561325</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7912720739791654</v>
+        <v>0.53623338487827</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0.8195804306663398</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0.7481948205281876</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0.4640851795581319</v>
       </c>
       <c r="I10" t="n">
-        <v>0.966768202213073</v>
+        <v>0.8426822740525101</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -798,28 +798,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7606844542401453</v>
+        <v>0.8084870869959815</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0.6141839990314896</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7572521784464139</v>
+        <v>0.7990252659441066</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7504261443022411</v>
+        <v>0.7456919326107733</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0.5500865996167716</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0.7481948205281876</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0.4640851795581319</v>
       </c>
       <c r="I11" t="n">
-        <v>0.966768202213073</v>
+        <v>0.8426822740525101</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -832,28 +832,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6225897192191445</v>
+        <v>0.4175265566776564</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8464209401709402</v>
+        <v>0.5887880423385875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6902483670826138</v>
+        <v>0.4277795924700814</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6902483670826138</v>
+        <v>0.4050553149672932</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6225897192191445</v>
+        <v>0.4175265566776564</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0.7481948205281876</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0.4640851795581319</v>
       </c>
       <c r="I12" t="n">
-        <v>0.966768202213073</v>
+        <v>0.8426822740525101</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -866,28 +866,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7284646177120564</v>
+        <v>0.4333193975879128</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8464209401709402</v>
+        <v>0.536251762687552</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7284646177120564</v>
+        <v>0.4198771589870595</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7386623194812849</v>
+        <v>0.4437580173971732</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7556219086939426</v>
+        <v>0.4333847199054571</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0.7481948205281876</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0.4640851795581319</v>
       </c>
       <c r="I13" t="n">
-        <v>0.966768202213073</v>
+        <v>0.8426822740525101</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -900,28 +900,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6630544271391551</v>
+        <v>0.7041551269202346</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8464209401709402</v>
+        <v>0.511127531270547</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6942627632570164</v>
+        <v>0.5689997041683796</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7179296787297176</v>
+        <v>0.587826759214255</v>
       </c>
       <c r="F14" t="n">
-        <v>0.772240085744909</v>
+        <v>0.6366962389266733</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.7481948205281876</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0.4640851795581319</v>
       </c>
       <c r="I14" t="n">
-        <v>0.966768202213073</v>
+        <v>0.8426822740525101</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -934,28 +934,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6494024374056894</v>
+        <v>0.3983124876599763</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8464209401709402</v>
+        <v>0.4818980518434294</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6255641958996475</v>
+        <v>0.4557916544547966</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6325830518668982</v>
+        <v>0.4643558959410156</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6494024374056894</v>
+        <v>0.3983124876599763</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0.7481948205281876</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0.4640851795581319</v>
       </c>
       <c r="I15" t="n">
-        <v>0.966768202213073</v>
+        <v>0.8426822740525101</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -968,28 +968,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2094196905008472</v>
+        <v>0.3309156651502007</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09706629659370342</v>
+        <v>0.3580856524588034</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1128020550824788</v>
+        <v>0.3469156651502007</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1128020550824788</v>
+        <v>0.3389156651502007</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2094196905008472</v>
+        <v>0.3309156651502007</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.7481948205281876</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0.4640851795581319</v>
       </c>
       <c r="I16" t="n">
-        <v>0.966768202213073</v>
+        <v>0.8426822740525101</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1002,28 +1002,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7658191131961953</v>
+        <v>0.5843963254468744</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6571399887903632</v>
+        <v>0.3371413552822323</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7284646177120564</v>
+        <v>0.5737233899983005</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7326629101923534</v>
+        <v>0.5378605226243555</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7556219086939426</v>
+        <v>0.5317101246397506</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0.7481948205281876</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0.4640851795581319</v>
       </c>
       <c r="I17" t="n">
-        <v>0.966768202213073</v>
+        <v>0.8426822740525101</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1036,28 +1036,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6161724500525763</v>
+        <v>0.6172133628805573</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9035812964930925</v>
+        <v>0.4607604047399578</v>
       </c>
       <c r="D18" t="n">
-        <v>0.713144208037825</v>
+        <v>0.6127624516237405</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7228391167192429</v>
+        <v>0.6587426309815009</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0.7237949528091707</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0.7506869696134122</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0.6827959264107653</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8274651353283808</v>
+        <v>0.7467872046816495</v>
       </c>
       <c r="J18" t="n">
         <v>2</v>
@@ -1070,28 +1070,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6161724500525763</v>
+        <v>0.7114913100647617</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9733475479744136</v>
+        <v>0.3488902995353149</v>
       </c>
       <c r="D19" t="n">
-        <v>0.723144208037825</v>
+        <v>0.7551008341018444</v>
       </c>
       <c r="E19" t="n">
-        <v>0.723144208037825</v>
+        <v>0.7601411234202453</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0.8342716049382716</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0.7506869696134122</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0.6827959264107653</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8274651353283808</v>
+        <v>0.7467872046816495</v>
       </c>
       <c r="J19" t="n">
         <v>2</v>
@@ -1104,28 +1104,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.357615033368458</v>
+        <v>0.3425494128687863</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5453816526610644</v>
+        <v>0.3720581595693891</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6292953786680724</v>
+        <v>0.3540478332021346</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6552350765979926</v>
+        <v>0.3564024920235284</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4072457664297622</v>
+        <v>0.3425494128687863</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0.7506869696134122</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0.6827959264107653</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8274651353283808</v>
+        <v>0.7467872046816495</v>
       </c>
       <c r="J20" t="n">
         <v>2</v>
@@ -1138,28 +1138,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3142899850523169</v>
+        <v>0.1911331538364767</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3244303797468354</v>
+        <v>0.1518516275926748</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3317543859649123</v>
+        <v>0.2844672372575304</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2645476944737769</v>
+        <v>0.1986243337596812</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3896155871511321</v>
+        <v>0.3940710850849601</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0.7506869696134122</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0.6827959264107653</v>
       </c>
       <c r="I21" t="n">
-        <v>0.8274651353283808</v>
+        <v>0.7467872046816495</v>
       </c>
       <c r="J21" t="n">
         <v>2</v>
@@ -1172,28 +1172,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4598108747044917</v>
+        <v>0.4769100064659349</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7663668807994291</v>
+        <v>0.3813214554197352</v>
       </c>
       <c r="D22" t="n">
-        <v>0.443249299719888</v>
+        <v>0.4538973376436208</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4561724500525762</v>
+        <v>0.4539524942669814</v>
       </c>
       <c r="F22" t="n">
-        <v>0.6400993436224942</v>
+        <v>0.4496112190910296</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0.7506869696134122</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0.6827959264107653</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8274651353283808</v>
+        <v>0.7467872046816495</v>
       </c>
       <c r="J22" t="n">
         <v>2</v>
@@ -1206,28 +1206,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6656979906993068</v>
+        <v>0.3778026333650807</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7663668807994291</v>
+        <v>0.4595606797312135</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6365826330532214</v>
+        <v>0.3336272834102921</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6365826330532214</v>
+        <v>0.3503304505990262</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6656979906993068</v>
+        <v>0.3778026333650807</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0.7506869696134122</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0.6827959264107653</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8274651353283808</v>
+        <v>0.7467872046816495</v>
       </c>
       <c r="J23" t="n">
         <v>2</v>
@@ -1240,28 +1240,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.09248025276461296</v>
+        <v>0.05166828087909847</v>
       </c>
       <c r="C24" t="n">
-        <v>0.102480252764613</v>
+        <v>0.07858078013831599</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1258135860979463</v>
+        <v>0.0247818461918454</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1258135860979463</v>
+        <v>0.04039979053084986</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09248025276461296</v>
+        <v>0.05166828087909847</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0.7506869696134122</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0.6827959264107653</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8274651353283808</v>
+        <v>0.7467872046816495</v>
       </c>
       <c r="J24" t="n">
         <v>2</v>
@@ -1274,28 +1274,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.5256979906993069</v>
+        <v>0.4122149407493678</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2966666666666667</v>
+        <v>0.4288557003258081</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5295057833859096</v>
+        <v>0.3960678287091564</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4636293571553687</v>
+        <v>0.3655675883489908</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6271764914144097</v>
+        <v>0.4583289357028801</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0.7506869696134122</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0.6827959264107653</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8274651353283808</v>
+        <v>0.7467872046816495</v>
       </c>
       <c r="J25" t="n">
         <v>2</v>
@@ -1308,28 +1308,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7470544766771853</v>
+        <v>0.5707545572877919</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7607929814749722</v>
+        <v>0.4830206383567797</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7436515758350982</v>
+        <v>0.4415886269902075</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7640414938048898</v>
+        <v>0.5433306562451317</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0.6557097123570684</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0.638659475660931</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0.4253079994004455</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8916068531199297</v>
+        <v>0.7019661568478167</v>
       </c>
       <c r="J26" t="n">
         <v>3</v>
@@ -1342,28 +1342,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.774285056851461</v>
+        <v>0.6968602421912282</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8786407766990292</v>
+        <v>0.5195174145604489</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7231955641279654</v>
+        <v>0.6477387122085032</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7231955641279654</v>
+        <v>0.683016318688572</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0.7393702034697147</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0.638659475660931</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0.4253079994004455</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8916068531199297</v>
+        <v>0.7019661568478167</v>
       </c>
       <c r="J27" t="n">
         <v>3</v>
@@ -1376,28 +1376,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.8284907183212268</v>
+        <v>0.1951382151482879</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8283059520603286</v>
+        <v>0.07269715847000124</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7505393743257821</v>
+        <v>0.1895582967150181</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8011593421407388</v>
+        <v>0.1927005524880078</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8284907183212268</v>
+        <v>0.1951382151482879</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0.638659475660931</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0.4253079994004455</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8916068531199297</v>
+        <v>0.7019661568478167</v>
       </c>
       <c r="J28" t="n">
         <v>3</v>
@@ -1410,28 +1410,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.6597403428487845</v>
+        <v>0.2372552753856517</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6921841541755889</v>
+        <v>0.1557033949077085</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6222084974622306</v>
+        <v>0.2283007365384243</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6222084974622306</v>
+        <v>0.2303019306700459</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7070811315322678</v>
+        <v>0.2676452523568345</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0.638659475660931</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0.4253079994004455</v>
       </c>
       <c r="I29" t="n">
-        <v>0.8916068531199297</v>
+        <v>0.7019661568478167</v>
       </c>
       <c r="J29" t="n">
         <v>3</v>
@@ -1444,28 +1444,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.6664392763176243</v>
+        <v>0.3157939695577405</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8464209401709402</v>
+        <v>0.3334514120031827</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6323826619991759</v>
+        <v>0.2843971311839008</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6323826619991759</v>
+        <v>0.2721351899249321</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6698584491128222</v>
+        <v>0.3246765229464053</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0.638659475660931</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.4253079994004455</v>
       </c>
       <c r="I30" t="n">
-        <v>0.8916068531199297</v>
+        <v>0.7019661568478167</v>
       </c>
       <c r="J30" t="n">
         <v>3</v>
@@ -1478,28 +1478,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.7114317393070093</v>
+        <v>0.2641738841755411</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8464209401709402</v>
+        <v>0.3430924184749144</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6912671355298177</v>
+        <v>0.3329335409431384</v>
       </c>
       <c r="E31" t="n">
-        <v>0.7048351796531408</v>
+        <v>0.3120454842422627</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7114317393070093</v>
+        <v>0.2641738841755411</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0.638659475660931</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.4253079994004455</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8916068531199297</v>
+        <v>0.7019661568478167</v>
       </c>
       <c r="J31" t="n">
         <v>3</v>
@@ -1512,28 +1512,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.6193910256410257</v>
+        <v>0.1041418933210764</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4981535913342197</v>
+        <v>0.1054015354810157</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5207667731629393</v>
+        <v>0.101125942877076</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5207667731629393</v>
+        <v>0.101125942877076</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6193910256410257</v>
+        <v>0.08107271093113927</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0.638659475660931</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.4253079994004455</v>
       </c>
       <c r="I32" t="n">
-        <v>0.8916068531199297</v>
+        <v>0.7019661568478167</v>
       </c>
       <c r="J32" t="n">
         <v>3</v>
@@ -1546,28 +1546,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.6732613499549093</v>
+        <v>0.3025274318727408</v>
       </c>
       <c r="C33" t="n">
-        <v>0.7122160675310011</v>
+        <v>0.3503346935774682</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6565193965517242</v>
+        <v>0.2330987533262102</v>
       </c>
       <c r="E33" t="n">
-        <v>0.6567275623944926</v>
+        <v>0.2710399370435222</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7419467626336292</v>
+        <v>0.3102691945633346</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0.638659475660931</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0.4253079994004455</v>
       </c>
       <c r="I33" t="n">
-        <v>0.8916068531199297</v>
+        <v>0.7019661568478167</v>
       </c>
       <c r="J33" t="n">
         <v>3</v>
@@ -1580,28 +1580,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.4378702799319477</v>
+        <v>0.2845338498160441</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3247329628405917</v>
+        <v>0.02701320655044902</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4866983965637421</v>
+        <v>0.2727697957842542</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5118850094808922</v>
+        <v>0.3128292054957839</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7179640685674114</v>
+        <v>0.4824291734191061</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9501197126895451</v>
+        <v>0.5380914541955777</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8028391167192429</v>
+        <v>0.6120274248097508</v>
       </c>
       <c r="I34" t="n">
-        <v>0.6529608224056986</v>
+        <v>0.5206215722520661</v>
       </c>
       <c r="J34" t="n">
         <v>4</v>
@@ -1614,28 +1614,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.6421156418362147</v>
+        <v>0.3411946215242765</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8387963460505105</v>
+        <v>0.2045780748187283</v>
       </c>
       <c r="D35" t="n">
-        <v>0.494512222938787</v>
+        <v>0.3840183127681912</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4388840017803106</v>
+        <v>0.4341387319748694</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9199999999999999</v>
+        <v>0.2934016653420691</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9501197126895451</v>
+        <v>0.5380914541955777</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8028391167192429</v>
+        <v>0.6120274248097508</v>
       </c>
       <c r="I35" t="n">
-        <v>0.6529608224056986</v>
+        <v>0.5206215722520661</v>
       </c>
       <c r="J35" t="n">
         <v>4</v>
@@ -1648,28 +1648,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2374837468215048</v>
+        <v>0.1208753114057824</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1824245899600669</v>
+        <v>0.01939269926918822</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1948167014771621</v>
+        <v>0.1386408548645724</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1869247434935018</v>
+        <v>0.08692348557095422</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2374837468215048</v>
+        <v>0.1208753114057824</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9501197126895451</v>
+        <v>0.5380914541955777</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8028391167192429</v>
+        <v>0.6120274248097508</v>
       </c>
       <c r="I36" t="n">
-        <v>0.6529608224056986</v>
+        <v>0.5206215722520661</v>
       </c>
       <c r="J36" t="n">
         <v>4</v>
@@ -1682,28 +1682,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2989773326304692</v>
+        <v>0.02994392635366775</v>
       </c>
       <c r="C37" t="n">
-        <v>0.132514209230683</v>
+        <v>-0.001242772227233811</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3116912158657273</v>
+        <v>-0.007133129069629407</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2207073514627203</v>
+        <v>-0.002935958433529351</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3491940615058325</v>
+        <v>0.126106848590875</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9501197126895451</v>
+        <v>0.5380914541955777</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8028391167192429</v>
+        <v>0.6120274248097508</v>
       </c>
       <c r="I37" t="n">
-        <v>0.6529608224056986</v>
+        <v>0.5206215722520661</v>
       </c>
       <c r="J37" t="n">
         <v>4</v>
@@ -1716,28 +1716,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3074076658109847</v>
+        <v>0.1107136757961452</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1513161620356388</v>
+        <v>0.09979224015914689</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2333388007434543</v>
+        <v>0.09304179383766945</v>
       </c>
       <c r="E38" t="n">
-        <v>0.254283990979012</v>
+        <v>0.1416017624333109</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2978501534180438</v>
+        <v>0.1543284425266123</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9501197126895451</v>
+        <v>0.5380914541955777</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8028391167192429</v>
+        <v>0.6120274248097508</v>
       </c>
       <c r="I38" t="n">
-        <v>0.6529608224056986</v>
+        <v>0.5206215722520661</v>
       </c>
       <c r="J38" t="n">
         <v>4</v>
@@ -1750,28 +1750,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3831077148522869</v>
+        <v>0.1707906111212165</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3195546653856215</v>
+        <v>0.0443248201877362</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3153838669264392</v>
+        <v>0.1315880849132711</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2951754961701971</v>
+        <v>0.1829999251416101</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3831077148522869</v>
+        <v>0.1707906111212165</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9501197126895451</v>
+        <v>0.5380914541955777</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8028391167192429</v>
+        <v>0.6120274248097508</v>
       </c>
       <c r="I39" t="n">
-        <v>0.6529608224056986</v>
+        <v>0.5206215722520661</v>
       </c>
       <c r="J39" t="n">
         <v>4</v>
@@ -1784,28 +1784,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1539940449641782</v>
+        <v>0.1208369196018989</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1355781820992665</v>
+        <v>0.1238986479986723</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1615802534186473</v>
+        <v>0.1103494674328834</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1512241012007691</v>
+        <v>0.1103494674328834</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1539940449641782</v>
+        <v>0.1208369196018989</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9501197126895451</v>
+        <v>0.5380914541955777</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8028391167192429</v>
+        <v>0.6120274248097508</v>
       </c>
       <c r="I40" t="n">
-        <v>0.6529608224056986</v>
+        <v>0.5206215722520661</v>
       </c>
       <c r="J40" t="n">
         <v>4</v>
@@ -1818,28 +1818,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3386230395218771</v>
+        <v>0.1716647681707164</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1498056801195815</v>
+        <v>0.03403570285775727</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3290731401583437</v>
+        <v>0.1543887205427479</v>
       </c>
       <c r="E41" t="n">
-        <v>0.3290731401583437</v>
+        <v>0.134846823178213</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3291757471980075</v>
+        <v>0.1628956280958446</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9501197126895451</v>
+        <v>0.5380914541955777</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8028391167192429</v>
+        <v>0.6120274248097508</v>
       </c>
       <c r="I41" t="n">
-        <v>0.6529608224056986</v>
+        <v>0.5206215722520661</v>
       </c>
       <c r="J41" t="n">
         <v>4</v>
@@ -1852,28 +1852,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.384955413862877</v>
+        <v>0.7816500321142718</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1046765975323825</v>
+        <v>0.3703230233783552</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4919861297428743</v>
+        <v>0.814377908340257</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5653977688245614</v>
+        <v>0.8170791509118402</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2402184381147357</v>
+        <v>0.8899064028823254</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5989490488415797</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4581911190856017</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0.4826443022776551</v>
+        <v>0.6864959659388743</v>
       </c>
       <c r="J42" t="n">
         <v>5</v>
@@ -1886,28 +1886,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2388413773420591</v>
+        <v>0.7728220373634542</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>0.6639749750674232</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2724325397663103</v>
+        <v>0.682413064912438</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2441862272898289</v>
+        <v>0.8026161952329206</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1184768422013953</v>
+        <v>0.9194221408985118</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5989490488415797</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4581911190856017</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4826443022776551</v>
+        <v>0.6864959659388743</v>
       </c>
       <c r="J43" t="n">
         <v>5</v>
@@ -1920,28 +1920,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.1021298833962865</v>
+        <v>0.256069278624218</v>
       </c>
       <c r="C44" t="n">
-        <v>0.01171875</v>
+        <v>0.1432941596713699</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1125533121200726</v>
+        <v>0.3308949991362517</v>
       </c>
       <c r="E44" t="n">
-        <v>0.05974090382742289</v>
+        <v>0.3265311288150356</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1021298833962865</v>
+        <v>0.2047738679715188</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5989490488415797</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4581911190856017</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4826443022776551</v>
+        <v>0.6864959659388743</v>
       </c>
       <c r="J44" t="n">
         <v>5</v>
@@ -1954,28 +1954,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.09890239777147897</v>
+        <v>0.1404484914364405</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0523548953561367</v>
+        <v>0.05390037752280832</v>
       </c>
       <c r="D45" t="n">
-        <v>0.07437827356351892</v>
+        <v>0.12836494638892</v>
       </c>
       <c r="E45" t="n">
-        <v>0.07463701473734</v>
+        <v>0.1616366841504664</v>
       </c>
       <c r="F45" t="n">
-        <v>0.04687041365023978</v>
+        <v>0.1528947182834033</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5989490488415797</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4581911190856017</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0.4826443022776551</v>
+        <v>0.6864959659388743</v>
       </c>
       <c r="J45" t="n">
         <v>5</v>
@@ -1988,28 +1988,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.131526558586385</v>
+        <v>0.3442396080323318</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1334738163558106</v>
+        <v>0.3721400596794334</v>
       </c>
       <c r="D46" t="n">
-        <v>0.00369149103113387</v>
+        <v>0.3373228504598147</v>
       </c>
       <c r="E46" t="n">
-        <v>0.09265468772926222</v>
+        <v>0.3008251184027224</v>
       </c>
       <c r="F46" t="n">
-        <v>0.238705600735142</v>
+        <v>0.3450502889208842</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5989490488415797</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4581911190856017</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4826443022776551</v>
+        <v>0.6864959659388743</v>
       </c>
       <c r="J46" t="n">
         <v>5</v>
@@ -2022,28 +2022,28 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.06461362104866361</v>
+        <v>0.3189243512641348</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.01870906355107099</v>
+        <v>0.4067521036069077</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.0007888122046634215</v>
+        <v>0.3327020144318973</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.003677165081882591</v>
+        <v>0.3613719868679405</v>
       </c>
       <c r="F47" t="n">
-        <v>0.06461362104866361</v>
+        <v>0.3189243512641348</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5989490488415797</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4581911190856017</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>0.4826443022776551</v>
+        <v>0.6864959659388743</v>
       </c>
       <c r="J47" t="n">
         <v>5</v>
@@ -2056,28 +2056,28 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.008930916732335172</v>
+        <v>0.0579497110341813</v>
       </c>
       <c r="C48" t="n">
-        <v>0.01107445383694517</v>
+        <v>0.1236179816211829</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.008930916732335172</v>
+        <v>0.07202979864458876</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.008930916732335172</v>
+        <v>0.07292054774988464</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.008930916732335172</v>
+        <v>0.0579497110341813</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5989490488415797</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.4581911190856017</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>0.4826443022776551</v>
+        <v>0.6864959659388743</v>
       </c>
       <c r="J48" t="n">
         <v>5</v>
@@ -2090,28 +2090,28 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01445056186839159</v>
+        <v>0.3342128970347589</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01820128479657387</v>
+        <v>0.3939579897681101</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.006204608109178066</v>
+        <v>0.3312786525825128</v>
       </c>
       <c r="E49" t="n">
-        <v>0.002188731098463771</v>
+        <v>0.3473675958130623</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.02104806257776901</v>
+        <v>0.3902852565439587</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5989490488415797</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0.4581911190856017</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0.4826443022776551</v>
+        <v>0.6864959659388743</v>
       </c>
       <c r="J49" t="n">
         <v>5</v>
@@ -2124,28 +2124,28 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.4087326543981895</v>
+        <v>0.4095785152729057</v>
       </c>
       <c r="C50" t="n">
-        <v>0.05620720559240007</v>
+        <v>0.07343836991124765</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1325955842757135</v>
+        <v>0.5626003062452695</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1535131099563997</v>
+        <v>0.5309225152094836</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2844654874635221</v>
+        <v>0.395466235221016</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1970883710063664</v>
+        <v>0.4736928101060464</v>
       </c>
       <c r="H50" t="n">
-        <v>0.3489989177489178</v>
+        <v>0.5471643575335001</v>
       </c>
       <c r="I50" t="n">
-        <v>0.4645845290915891</v>
+        <v>0.5954668395700266</v>
       </c>
       <c r="J50" t="n">
         <v>6</v>
@@ -2158,28 +2158,28 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2873720360747775</v>
+        <v>0.3323440588276123</v>
       </c>
       <c r="C51" t="n">
-        <v>0.126924318507891</v>
+        <v>0.1254910014538443</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1395546389287422</v>
+        <v>0.3291989977308885</v>
       </c>
       <c r="E51" t="n">
-        <v>0.2104951322940931</v>
+        <v>0.3429075882343051</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1679473872584109</v>
+        <v>0.2398553093577595</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1970883710063664</v>
+        <v>0.4736928101060464</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3489989177489178</v>
+        <v>0.5471643575335001</v>
       </c>
       <c r="I51" t="n">
-        <v>0.4645845290915891</v>
+        <v>0.5954668395700266</v>
       </c>
       <c r="J51" t="n">
         <v>6</v>
@@ -2192,28 +2192,28 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2636295099623048</v>
+        <v>0.129198645893034</v>
       </c>
       <c r="C52" t="n">
-        <v>0.03732745961820851</v>
+        <v>0.1341210917397852</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1367294244217321</v>
+        <v>0.1367925623362586</v>
       </c>
       <c r="E52" t="n">
-        <v>0.113996062992126</v>
+        <v>0.178177114260558</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2636295099623048</v>
+        <v>0.129198645893034</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1970883710063664</v>
+        <v>0.4736928101060464</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3489989177489178</v>
+        <v>0.5471643575335001</v>
       </c>
       <c r="I52" t="n">
-        <v>0.4645845290915891</v>
+        <v>0.5954668395700266</v>
       </c>
       <c r="J52" t="n">
         <v>6</v>
@@ -2226,28 +2226,28 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1197295854830101</v>
+        <v>0.003492531636541537</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.01205887568717858</v>
+        <v>0.02435455498961029</v>
       </c>
       <c r="D53" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.07457891823612911</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1217843866171004</v>
+        <v>0.07056216047980338</v>
       </c>
       <c r="F53" t="n">
-        <v>0.007356805044666317</v>
+        <v>0.08922264024710216</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1970883710063664</v>
+        <v>0.4736928101060464</v>
       </c>
       <c r="H53" t="n">
-        <v>0.3489989177489178</v>
+        <v>0.5471643575335001</v>
       </c>
       <c r="I53" t="n">
-        <v>0.4645845290915891</v>
+        <v>0.5954668395700266</v>
       </c>
       <c r="J53" t="n">
         <v>6</v>
@@ -2260,28 +2260,28 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.3006192784060313</v>
+        <v>0.1561840644055411</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>0.1577335710293792</v>
       </c>
       <c r="D54" t="n">
-        <v>0.2401825582091339</v>
+        <v>0.1066359646252688</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1670385625596943</v>
+        <v>0.1423846406589045</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1240968242597899</v>
+        <v>0.1670331027057212</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1970883710063664</v>
+        <v>0.4736928101060464</v>
       </c>
       <c r="H54" t="n">
-        <v>0.3489989177489178</v>
+        <v>0.5471643575335001</v>
       </c>
       <c r="I54" t="n">
-        <v>0.4645845290915891</v>
+        <v>0.5954668395700266</v>
       </c>
       <c r="J54" t="n">
         <v>6</v>
@@ -2294,28 +2294,28 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2866666666666667</v>
+        <v>0.1060584466565674</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>0.1235887768143559</v>
       </c>
       <c r="D55" t="n">
-        <v>0.2029773981135433</v>
+        <v>0.1964548333692265</v>
       </c>
       <c r="E55" t="n">
-        <v>0.19964406478021</v>
+        <v>0.1708645430256801</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2866666666666667</v>
+        <v>0.1060584466565674</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1970883710063664</v>
+        <v>0.4736928101060464</v>
       </c>
       <c r="H55" t="n">
-        <v>0.3489989177489178</v>
+        <v>0.5471643575335001</v>
       </c>
       <c r="I55" t="n">
-        <v>0.4645845290915891</v>
+        <v>0.5954668395700266</v>
       </c>
       <c r="J55" t="n">
         <v>6</v>
@@ -2328,28 +2328,28 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.044129113018598</v>
+        <v>0.0929318973352941</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01795107033639144</v>
+        <v>0.09043171656279075</v>
       </c>
       <c r="D56" t="n">
-        <v>0.04132106923855451</v>
+        <v>0.0929318973352941</v>
       </c>
       <c r="E56" t="n">
-        <v>0.04132106923855451</v>
+        <v>0.0929318973352941</v>
       </c>
       <c r="F56" t="n">
-        <v>0.044129113018598</v>
+        <v>0.0929318973352941</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1970883710063664</v>
+        <v>0.4736928101060464</v>
       </c>
       <c r="H56" t="n">
-        <v>0.3489989177489178</v>
+        <v>0.5471643575335001</v>
       </c>
       <c r="I56" t="n">
-        <v>0.4645845290915891</v>
+        <v>0.5954668395700266</v>
       </c>
       <c r="J56" t="n">
         <v>6</v>
@@ -2362,28 +2362,28 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.203796711509716</v>
+        <v>0.1210060748997788</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1233480176211454</v>
+        <v>0.0817711538951713</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1716657733309511</v>
+        <v>0.1513902989701537</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2049991066642844</v>
+        <v>0.1593608567597043</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1786911773454697</v>
+        <v>0.1521730617552988</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1970883710063664</v>
+        <v>0.4736928101060464</v>
       </c>
       <c r="H57" t="n">
-        <v>0.3489989177489178</v>
+        <v>0.5471643575335001</v>
       </c>
       <c r="I57" t="n">
-        <v>0.4645845290915891</v>
+        <v>0.5954668395700266</v>
       </c>
       <c r="J57" t="n">
         <v>6</v>
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.8099174812589369</v>
+        <v>0.6200614825149198</v>
       </c>
       <c r="C58" t="n">
-        <v>0.512245379766234</v>
+        <v>0.3707076837459448</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9090725399070519</v>
+        <v>0.5213739822495599</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9090725399070519</v>
+        <v>0.430741863187252</v>
       </c>
       <c r="F58" t="n">
-        <v>0.5137312182286232</v>
+        <v>0.3889659204751555</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0.722959963983359</v>
       </c>
       <c r="H58" t="n">
-        <v>0.7639207459987765</v>
+        <v>0.5613184401539884</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9183365761328781</v>
+        <v>0.8083176340070969</v>
       </c>
       <c r="J58" t="n">
         <v>7</v>
@@ -2430,28 +2430,28 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0.4710683484718343</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0.4350910418653678</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0.4662013446006753</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0.5214100838021392</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7868951265713794</v>
+        <v>0.2846199447383785</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0.722959963983359</v>
       </c>
       <c r="H59" t="n">
-        <v>0.7639207459987765</v>
+        <v>0.5613184401539884</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9183365761328781</v>
+        <v>0.8083176340070969</v>
       </c>
       <c r="J59" t="n">
         <v>7</v>
@@ -2464,28 +2464,28 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.5192693757285495</v>
+        <v>0.4262081946819313</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4793349508510876</v>
+        <v>0.3071110680691073</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4793349508510876</v>
+        <v>0.3504490815225693</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4793349508510876</v>
+        <v>0.3899434770839281</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5192693757285495</v>
+        <v>0.4262081946819313</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0.722959963983359</v>
       </c>
       <c r="H60" t="n">
-        <v>0.7639207459987765</v>
+        <v>0.5613184401539884</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9183365761328781</v>
+        <v>0.8083176340070969</v>
       </c>
       <c r="J60" t="n">
         <v>7</v>
@@ -2498,28 +2498,28 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.4793349508510876</v>
+        <v>0.3514550090385797</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4793349508510876</v>
+        <v>0.4221237538398951</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4793349508510876</v>
+        <v>0.3805257115734131</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4793349508510876</v>
+        <v>0.3241365263724451</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4793349508510876</v>
+        <v>0.32924252274099</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0.722959963983359</v>
       </c>
       <c r="H61" t="n">
-        <v>0.7639207459987765</v>
+        <v>0.5613184401539884</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9183365761328781</v>
+        <v>0.8083176340070969</v>
       </c>
       <c r="J61" t="n">
         <v>7</v>
@@ -2532,28 +2532,28 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.4793349508510876</v>
+        <v>0.399841942803527</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4793349508510876</v>
+        <v>0.366587808086947</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4793349508510876</v>
+        <v>0.4269138750889324</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4793349508510876</v>
+        <v>0.3999233835148677</v>
       </c>
       <c r="F62" t="n">
-        <v>0.4793349508510876</v>
+        <v>0.3327600528135911</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0.722959963983359</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7639207459987765</v>
+        <v>0.5613184401539884</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9183365761328781</v>
+        <v>0.8083176340070969</v>
       </c>
       <c r="J62" t="n">
         <v>7</v>
@@ -2566,28 +2566,28 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.4793349508510876</v>
+        <v>0.3830753968283083</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4793349508510876</v>
+        <v>0.4004294263016585</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4793349508510876</v>
+        <v>0.328316526075797</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4793349508510876</v>
+        <v>0.3093010431116742</v>
       </c>
       <c r="F63" t="n">
-        <v>0.4793349508510876</v>
+        <v>0.3830753968283083</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0.722959963983359</v>
       </c>
       <c r="H63" t="n">
-        <v>0.7639207459987765</v>
+        <v>0.5613184401539884</v>
       </c>
       <c r="I63" t="n">
-        <v>0.9183365761328781</v>
+        <v>0.8083176340070969</v>
       </c>
       <c r="J63" t="n">
         <v>7</v>
@@ -2600,28 +2600,28 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.2372377659894454</v>
+        <v>0.1132589427253906</v>
       </c>
       <c r="C64" t="n">
-        <v>0.2424175874203571</v>
+        <v>0.1215905666814758</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1486581795597259</v>
+        <v>0.1132589427253906</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1460597336630688</v>
+        <v>0.1132589427253906</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2372377659894454</v>
+        <v>0.1132589427253906</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0.722959963983359</v>
       </c>
       <c r="H64" t="n">
-        <v>0.7639207459987765</v>
+        <v>0.5613184401539884</v>
       </c>
       <c r="I64" t="n">
-        <v>0.9183365761328781</v>
+        <v>0.8083176340070969</v>
       </c>
       <c r="J64" t="n">
         <v>7</v>
@@ -2634,28 +2634,28 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.4373671184537634</v>
+        <v>0.410285659184234</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2845214481458095</v>
+        <v>0.3428359438945369</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4793349508510876</v>
+        <v>0.4611770275389476</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4793349508510876</v>
+        <v>0.4101662652913186</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4388091950646842</v>
+        <v>0.3962063244223941</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0.722959963983359</v>
       </c>
       <c r="H65" t="n">
-        <v>0.7639207459987765</v>
+        <v>0.5613184401539884</v>
       </c>
       <c r="I65" t="n">
-        <v>0.9183365761328781</v>
+        <v>0.8083176340070969</v>
       </c>
       <c r="J65" t="n">
         <v>7</v>
@@ -2668,28 +2668,28 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.6563883455163183</v>
+        <v>0.5140545853228702</v>
       </c>
       <c r="C66" t="n">
-        <v>0.40023279553474</v>
+        <v>0.2746930976741537</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7211895910780669</v>
+        <v>0.4056942701414069</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6411483253588517</v>
+        <v>0.3627310264118254</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3197031237529856</v>
+        <v>0.5980780586752611</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0.6343714299606628</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0.529885252964428</v>
       </c>
       <c r="I66" t="n">
-        <v>0.9705414012738853</v>
+        <v>0.6166712710667773</v>
       </c>
       <c r="J66" t="n">
         <v>8</v>
@@ -2702,28 +2702,28 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0.6214343000375424</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0.5195989593234385</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0.5729095307530703</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0.5202555658844972</v>
       </c>
       <c r="F67" t="n">
-        <v>0.7066666666666667</v>
+        <v>0.3545279600859635</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0.6343714299606628</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0.529885252964428</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9705414012738853</v>
+        <v>0.6166712710667773</v>
       </c>
       <c r="J67" t="n">
         <v>8</v>
@@ -2736,28 +2736,28 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0.1525327837491963</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0.1071433822110682</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0.2018119232192868</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0.1385918811403542</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>0.1525327837491963</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0.6343714299606628</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0.529885252964428</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9705414012738853</v>
+        <v>0.6166712710667773</v>
       </c>
       <c r="J68" t="n">
         <v>8</v>
@@ -2770,28 +2770,28 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0.137616160374692</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0.1205880541839021</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0.1714563500640781</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0.1294402356839645</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0.1344817824741685</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0.6343714299606628</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0.529885252964428</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9705414012738853</v>
+        <v>0.6166712710667773</v>
       </c>
       <c r="J69" t="n">
         <v>8</v>
@@ -2804,28 +2804,28 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0.2249234524805886</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0.1789509457056284</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0.2179628668251113</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>0.1801452542596691</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0.2360771345228391</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0.6343714299606628</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0.529885252964428</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9705414012738853</v>
+        <v>0.6166712710667773</v>
       </c>
       <c r="J70" t="n">
         <v>8</v>
@@ -2838,28 +2838,28 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0.2144001088552398</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0.07930308155107009</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0.1890793032897174</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0.1386355140911232</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0.2144001088552398</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0.6343714299606628</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0.529885252964428</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9705414012738853</v>
+        <v>0.6166712710667773</v>
       </c>
       <c r="J71" t="n">
         <v>8</v>
@@ -2872,28 +2872,28 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1197203678841294</v>
+        <v>0.07224916339958362</v>
       </c>
       <c r="C72" t="n">
-        <v>0.03699288686035422</v>
+        <v>0.06880304518390719</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0368320223952202</v>
+        <v>0.05284635843855889</v>
       </c>
       <c r="E72" t="n">
-        <v>0.01181941484208487</v>
+        <v>0.05284635843855889</v>
       </c>
       <c r="F72" t="n">
-        <v>0.03510643338365557</v>
+        <v>0.04837222406668296</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0.6343714299606628</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0.529885252964428</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9705414012738853</v>
+        <v>0.6166712710667773</v>
       </c>
       <c r="J72" t="n">
         <v>8</v>
@@ -2906,28 +2906,28 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.9372909698996655</v>
+        <v>0.1213968897329481</v>
       </c>
       <c r="C73" t="n">
-        <v>0.8571730850613627</v>
+        <v>0.1048733823018028</v>
       </c>
       <c r="D73" t="n">
-        <v>0.9372909698996655</v>
+        <v>0.1793854892898427</v>
       </c>
       <c r="E73" t="n">
-        <v>0.8712561656734381</v>
+        <v>0.1730387986119148</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9372909698996655</v>
+        <v>0.1444336414705534</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0.6343714299606628</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0.529885252964428</v>
       </c>
       <c r="I73" t="n">
-        <v>0.9705414012738853</v>
+        <v>0.6166712710667773</v>
       </c>
       <c r="J73" t="n">
         <v>8</v>
@@ -2940,28 +2940,28 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.7969721275315821</v>
+        <v>0.2671599811891029</v>
       </c>
       <c r="C74" t="n">
-        <v>0.673926220818821</v>
+        <v>0.1978797474664113</v>
       </c>
       <c r="D74" t="n">
-        <v>0.836380635778101</v>
+        <v>0.3811025070810056</v>
       </c>
       <c r="E74" t="n">
-        <v>0.836380635778101</v>
+        <v>0.3705924919270154</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6348178600765421</v>
+        <v>0.406243777482731</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0.6728450603411986</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0.5683149249889118</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9862484921072325</v>
+        <v>0.8501997593938124</v>
       </c>
       <c r="J74" t="n">
         <v>9</v>
@@ -2974,28 +2974,28 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0.6884994274607552</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0.5958276129717692</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>0.6567147785856549</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>0.6155842275009692</v>
       </c>
       <c r="F75" t="n">
-        <v>0.5711987598215078</v>
+        <v>0.2904323262114364</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0.6728450603411986</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0.5683149249889118</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9862484921072325</v>
+        <v>0.8501997593938124</v>
       </c>
       <c r="J75" t="n">
         <v>9</v>
@@ -3008,28 +3008,28 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.9004289215686274</v>
+        <v>0.507240312165752</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8516219801369571</v>
+        <v>0.4901695800465033</v>
       </c>
       <c r="D76" t="n">
-        <v>0.9004289215686274</v>
+        <v>0.5213135992315658</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9004289215686274</v>
+        <v>0.515577880768218</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9004289215686274</v>
+        <v>0.507240312165752</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0.6728450603411986</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0.5683149249889118</v>
       </c>
       <c r="I76" t="n">
-        <v>0.9862484921072325</v>
+        <v>0.8501997593938124</v>
       </c>
       <c r="J76" t="n">
         <v>9</v>
@@ -3042,28 +3042,28 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.9004289215686274</v>
+        <v>0.5228434732708036</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9004289215686274</v>
+        <v>0.4936021840718047</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9004289215686274</v>
+        <v>0.5071365861881112</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9004289215686274</v>
+        <v>0.5071365861881112</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9004289215686274</v>
+        <v>0.5228434732708036</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0.6728450603411986</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0.5683149249889118</v>
       </c>
       <c r="I77" t="n">
-        <v>0.9862484921072325</v>
+        <v>0.8501997593938124</v>
       </c>
       <c r="J77" t="n">
         <v>9</v>
@@ -3076,28 +3076,28 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.9004289215686274</v>
+        <v>0.42410344586085</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9004289215686274</v>
+        <v>0.475561124182034</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9004289215686274</v>
+        <v>0.4788223623270756</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9004289215686274</v>
+        <v>0.5267013248264706</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9004289215686274</v>
+        <v>0.5009375952103056</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0.6728450603411986</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0.5683149249889118</v>
       </c>
       <c r="I78" t="n">
-        <v>0.9862484921072325</v>
+        <v>0.8501997593938124</v>
       </c>
       <c r="J78" t="n">
         <v>9</v>
@@ -3110,28 +3110,28 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.9004289215686274</v>
+        <v>0.4733945092292148</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9004289215686274</v>
+        <v>0.483998239354137</v>
       </c>
       <c r="D79" t="n">
-        <v>0.9004289215686274</v>
+        <v>0.4358079283843871</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9004289215686274</v>
+        <v>0.4305184640428791</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9004289215686274</v>
+        <v>0.4733945092292148</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0.6728450603411986</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0.5683149249889118</v>
       </c>
       <c r="I79" t="n">
-        <v>0.9862484921072325</v>
+        <v>0.8501997593938124</v>
       </c>
       <c r="J79" t="n">
         <v>9</v>
@@ -3144,28 +3144,28 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1544514226263332</v>
+        <v>0.01830565195949641</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3012496049570624</v>
+        <v>0.0832223243527835</v>
       </c>
       <c r="D80" t="n">
-        <v>0.1228766240359312</v>
+        <v>0.02290262634516654</v>
       </c>
       <c r="E80" t="n">
-        <v>0.157524308962783</v>
+        <v>0.006281171854841477</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1544514226263332</v>
+        <v>0.01830565195949641</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0.6728450603411986</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0.5683149249889118</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9862484921072325</v>
+        <v>0.8501997593938124</v>
       </c>
       <c r="J80" t="n">
         <v>9</v>
@@ -3178,31 +3178,6287 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.8380977351983803</v>
+        <v>0.6019055166282741</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6154523042654318</v>
+        <v>0.4907563596196471</v>
       </c>
       <c r="D81" t="n">
-        <v>0.7920026514323202</v>
+        <v>0.5337328968203567</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8009273335360292</v>
+        <v>0.4905337945368717</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8418168552979179</v>
+        <v>0.5307559691501758</v>
       </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0.6728450603411986</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0.5683149249889118</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9862484921072325</v>
+        <v>0.8501997593938124</v>
       </c>
       <c r="J81" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.52449253731613</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.3111102616228197</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.4253083630732536</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.3973034360665046</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.4786748664781115</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.6111996498379986</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.492576612020559</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.6525646913115419</v>
+      </c>
+      <c r="J82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.3927758882893736</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.2557256755579757</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.3770509308137505</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.2928965538373467</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.10573147241691</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.6111996498379986</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.492576612020559</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.6525646913115419</v>
+      </c>
+      <c r="J83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.189520830479847</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.1157523539967305</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.1556418111635298</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.1793574230294389</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.189520830479847</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.6111996498379986</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.492576612020559</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.6525646913115419</v>
+      </c>
+      <c r="J84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.07164306767142775</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.06403697184658204</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.04452962530759868</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.1063438453561339</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.04269194096122393</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.6111996498379986</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.492576612020559</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.6525646913115419</v>
+      </c>
+      <c r="J85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.1639346699086101</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.1404876347040981</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.1441600829684753</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.1771938276022747</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.1661253570433332</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.6111996498379986</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.492576612020559</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.6525646913115419</v>
+      </c>
+      <c r="J86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.2547951694295666</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.1015189118792448</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.2608834115802481</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.2039319510687868</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.2547951694295666</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.6111996498379986</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.492576612020559</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.6525646913115419</v>
+      </c>
+      <c r="J87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.1344074560868283</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.1585621133712816</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.1344074560868283</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.1344074560868283</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.1344074560868283</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.6111996498379986</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.492576612020559</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.6525646913115419</v>
+      </c>
+      <c r="J88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.207271763267255</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.1089653757626945</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.1647200910818076</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.2085529379660091</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.2259647558797649</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.6111996498379986</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.492576612020559</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.6525646913115419</v>
+      </c>
+      <c r="J89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.38296783000451</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.1262427536246595</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.4344607938756989</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.4258695412210679</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.4242792813649113</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.4859325871934009</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.6963491719524708</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.5016765614658898</v>
+      </c>
+      <c r="J90" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.4706708498841904</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.2116417755048767</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.45323225138759</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.4574215079711307</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.3946394931008338</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.4859325871934009</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.6963491719524708</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.5016765614658898</v>
+      </c>
+      <c r="J91" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.2464022542829248</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.07372832524197685</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.3087389562850852</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.344978334001642</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.2464022542829248</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.4859325871934009</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.6963491719524708</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.5016765614658898</v>
+      </c>
+      <c r="J92" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.2303687525739134</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.07273218523415294</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.2353250961102046</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.189096955028803</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.1856331968613702</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.4859325871934009</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.6963491719524708</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.5016765614658898</v>
+      </c>
+      <c r="J93" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.2462232669765874</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.2520461043367509</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.2780333008627301</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.2778972933756092</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.2329155021422463</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.4859325871934009</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.6963491719524708</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.5016765614658898</v>
+      </c>
+      <c r="J94" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.2528637758398935</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.2041546074468265</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.3033674767628425</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.3373379704734538</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.2528637758398935</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.4859325871934009</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.6963491719524708</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.5016765614658898</v>
+      </c>
+      <c r="J95" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.1146996884884434</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.06736393718250019</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.08316406659060507</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.08316406659060507</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.1146996884884434</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.4859325871934009</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.6963491719524708</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.5016765614658898</v>
+      </c>
+      <c r="J96" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.2228409626267044</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.1688976287291792</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.1749605804942284</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.2584000716143078</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.2256968788788998</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.4859325871934009</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.6963491719524708</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.5016765614658898</v>
+      </c>
+      <c r="J97" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.4428993488159188</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.2417308319839523</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.5361790684170396</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.4933961077609545</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.2704920096004456</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.6885500659695868</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.632691585304657</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.7661367344405245</v>
+      </c>
+      <c r="J98" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.4667209393342752</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.4998638386102806</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.5146506342692122</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.4540328972496302</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.1241630840126958</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.6885500659695868</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.632691585304657</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.7661367344405245</v>
+      </c>
+      <c r="J99" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.3362219514039204</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.2501698409142046</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.2352035536288119</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.2623204910765729</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.3362219514039204</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.6885500659695868</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.632691585304657</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.7661367344405245</v>
+      </c>
+      <c r="J100" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.2953992274294019</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.2905761035916485</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.2732138636932052</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.3161587388691151</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.2607435859172791</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.6885500659695868</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.632691585304657</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.7661367344405245</v>
+      </c>
+      <c r="J101" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.3286308824061274</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.3009652157076148</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.345307960940986</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.3548761457286645</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.3782134215109346</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.6885500659695868</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.632691585304657</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.7661367344405245</v>
+      </c>
+      <c r="J102" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.3983394685575068</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.2195122599746042</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.3297776758405471</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.3559006108674135</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.3983394685575068</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.6885500659695868</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.632691585304657</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.7661367344405245</v>
+      </c>
+      <c r="J103" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.03239509493261091</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.21544007278916</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.03175068516149543</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.03175068516149543</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.03239509493261091</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.6885500659695868</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.632691585304657</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.7661367344405245</v>
+      </c>
+      <c r="J104" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.3384042399896191</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.2897363387500871</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.371046047771823</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.3618139564837975</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.3296398571491206</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.6885500659695868</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.632691585304657</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.7661367344405245</v>
+      </c>
+      <c r="J105" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.3671567042209501</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.154867348597527</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.3008436388398431</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.270149094208203</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.1683997529696627</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.5659827058201291</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.635612807409381</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.5553150025946032</v>
+      </c>
+      <c r="J106" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.314921665294831</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.4274892006284017</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.3360850760830947</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.3049734966693467</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.231045371286352</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.5659827058201291</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.635612807409381</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.5553150025946032</v>
+      </c>
+      <c r="J107" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.1595011536023914</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.0974079311022938</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.1507671575941434</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.1991347014180397</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.1595011536023914</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.5659827058201291</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.635612807409381</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.5553150025946032</v>
+      </c>
+      <c r="J108" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.09993424674489662</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.1290249541031275</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.09147479412540628</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.09993424674489662</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.08968230959659299</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.5659827058201291</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.635612807409381</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.5553150025946032</v>
+      </c>
+      <c r="J109" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.2115682145279799</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.190452110259568</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.1812705486434723</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.1702940118058086</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.1597490218403368</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.5659827058201291</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.635612807409381</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.5553150025946032</v>
+      </c>
+      <c r="J110" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.2019080850073778</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.2226206237805365</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.2083603567201028</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.1755826249839946</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.2019080850073778</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.5659827058201291</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.635612807409381</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.5553150025946032</v>
+      </c>
+      <c r="J111" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.001823660354519385</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.01699111740325162</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.01363920253269199</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.00708311763357436</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.001823660354519385</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.5659827058201291</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.635612807409381</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.5553150025946032</v>
+      </c>
+      <c r="J112" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.1815872795290485</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.1950916438795473</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.1567613954440694</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.1696661849538834</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.1798440518820354</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.5659827058201291</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.635612807409381</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.5553150025946032</v>
+      </c>
+      <c r="J113" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.5507461667432652</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.3943246489730096</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.6014450101689951</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.5890124750310107</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.4280478435162867</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.9474633522070697</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.8298403592981021</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.9109022080909716</v>
+      </c>
+      <c r="J114" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.8091964558731043</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.752942056848186</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.8301402077848763</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.8301402077848763</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.5359621501167633</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.9474633522070697</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.8298403592981021</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.9109022080909716</v>
+      </c>
+      <c r="J115" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.54181357676424</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.4393739320500581</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.5029782784794385</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.5061545787653626</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.54181357676424</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.9474633522070697</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.8298403592981021</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.9109022080909716</v>
+      </c>
+      <c r="J116" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.4817729246633732</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.4976141167879319</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.4471221428327343</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.4673685006790424</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.4395223188928261</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.9474633522070697</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.8298403592981021</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.9109022080909716</v>
+      </c>
+      <c r="J117" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.5943973317620833</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.5769839093476354</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.5174372121457418</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.4825136046962677</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.5328549374865224</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.9474633522070697</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.8298403592981021</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.9109022080909716</v>
+      </c>
+      <c r="J118" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.5569437357571816</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.4514185163375214</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.5240722647918952</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.5354364141288903</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.5569437357571816</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.9474633522070697</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.8298403592981021</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.9109022080909716</v>
+      </c>
+      <c r="J119" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.1101214493849348</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.2272622671675254</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.07032670953981181</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.03593739632442655</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.1101214493849348</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.9474633522070697</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.8298403592981021</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.9109022080909716</v>
+      </c>
+      <c r="J120" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.5038440900977695</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.4038594587238812</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.4254382300761378</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.4624682096069561</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.4416421232697758</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.9474633522070697</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.8298403592981021</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.9109022080909716</v>
+      </c>
+      <c r="J121" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.1958933671349264</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.1011856124135215</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.27345155197048</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.2618297142660985</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.2023948261748371</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.6107224674734614</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.4508805171663626</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.7901328152924157</v>
+      </c>
+      <c r="J122" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.2461012793394576</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.3839601883836024</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.2927650536222532</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.269058765094113</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.1767231115963895</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.6107224674734614</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.4508805171663626</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.7901328152924157</v>
+      </c>
+      <c r="J123" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.2151725157937425</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.129696982541913</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.1684723515796109</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.2142803845153765</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.2151725157937425</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.6107224674734614</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.4508805171663626</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.7901328152924157</v>
+      </c>
+      <c r="J124" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.1037830984557118</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.3773224020868167</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.1330156512206308</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.1330156512206308</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.05391984361584132</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.6107224674734614</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.4508805171663626</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.7901328152924157</v>
+      </c>
+      <c r="J125" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0.3147086133509523</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.1950421769473044</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.287101483498153</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.3359415405090329</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.2780786737333724</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.6107224674734614</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.4508805171663626</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.7901328152924157</v>
+      </c>
+      <c r="J126" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.2123356850742462</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.3097470573311983</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.2379045851801529</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.2789420694715962</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.2123356850742462</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.6107224674734614</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.4508805171663626</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.7901328152924157</v>
+      </c>
+      <c r="J127" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0.0602279152263414</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.1381355343997273</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.07786302230075239</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.07786302230075239</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.0602279152263414</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.6107224674734614</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.4508805171663626</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.7901328152924157</v>
+      </c>
+      <c r="J128" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0.2036261967114826</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.1756324519745208</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.1991990546562218</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.1755656715714133</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.1921566432608736</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.6107224674734614</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.4508805171663626</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.7901328152924157</v>
+      </c>
+      <c r="J129" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.2511178677720711</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.1569489609670179</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.3049383085012476</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.262271263311016</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.2401299723592559</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.5731546709041828</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.5106946568093853</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.7621049970164784</v>
+      </c>
+      <c r="J130" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0.4062687395316756</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.3665076668711396</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.3736399512409017</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.3551523133465105</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.2420273356873775</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.5731546709041828</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.5106946568093853</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.7621049970164784</v>
+      </c>
+      <c r="J131" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.2949870347108277</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.2367245626680666</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.2408967693481254</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.2372125823610592</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.2949870347108277</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.5731546709041828</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.5106946568093853</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.7621049970164784</v>
+      </c>
+      <c r="J132" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0.1047029279025621</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.2889637425693322</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.1172366581060696</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.1172366581060696</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.06075319647296847</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.5731546709041828</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.5106946568093853</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.7621049970164784</v>
+      </c>
+      <c r="J133" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0.1414135986257526</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.1989549886616999</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.2173815385958568</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.2205699183822446</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.2035578821908934</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.5731546709041828</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.5106946568093853</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.7621049970164784</v>
+      </c>
+      <c r="J134" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.2666076420256874</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.186763841294456</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.2841189698819001</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.2471909827738235</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.2666076420256874</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.5731546709041828</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.5106946568093853</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.7621049970164784</v>
+      </c>
+      <c r="J135" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.1043518732187381</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.1958468284900059</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.08378745586424954</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.1051970598886773</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.1043518732187381</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.5731546709041828</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.5106946568093853</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.7621049970164784</v>
+      </c>
+      <c r="J136" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.2491769992012365</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.1922332335176009</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.2923617046900905</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.294279041447462</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.2822750567900346</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.5731546709041828</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.5106946568093853</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0.7621049970164784</v>
+      </c>
+      <c r="J137" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.2891038388340458</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.0918963259727013</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.2297249452376413</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.1928266957752486</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.2482679113714841</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.5401887536320013</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.5521086632812745</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0.6959207522249999</v>
+      </c>
+      <c r="J138" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.3635384656611863</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.3426476282377414</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.2749941472495148</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.2434969492825744</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.1932370861340173</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.5401887536320013</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.5521086632812745</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.6959207522249999</v>
+      </c>
+      <c r="J139" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0.2521797739501529</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.3645532040650295</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.244883394661997</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.2208004257191634</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.2521797739501529</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.5401887536320013</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.5521086632812745</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.6959207522249999</v>
+      </c>
+      <c r="J140" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.1520019789261097</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.3213425287726341</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.1237622342249262</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.1237622342249262</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.06330269871079408</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.5401887536320013</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.5521086632812745</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.6959207522249999</v>
+      </c>
+      <c r="J141" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.272321882172108</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.2374226866803247</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.1949468614729564</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.2480153802995493</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.2760215947396865</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.5401887536320013</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.5521086632812745</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.6959207522249999</v>
+      </c>
+      <c r="J142" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0.2997928015796375</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.2113046218576592</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.3056805591790967</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.2600971452682993</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.2997928015796375</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.5401887536320013</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.5521086632812745</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.6959207522249999</v>
+      </c>
+      <c r="J143" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0.1036589100398163</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.0962566483815005</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.0910695118174214</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.08209895137627272</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.1036589100398163</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.5401887536320013</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.5521086632812745</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.6959207522249999</v>
+      </c>
+      <c r="J144" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0.2759419517088482</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.1573641962171067</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.2481988353133743</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.2398996972453036</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.2813691185861507</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.5401887536320013</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.5521086632812745</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.6959207522249999</v>
+      </c>
+      <c r="J145" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.4828628262404007</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.2620594425321562</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.2822706147879299</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.2953880527239313</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.3610484417280192</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.5228057205494345</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.6941150691228563</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0.5649832784374171</v>
+      </c>
+      <c r="J146" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0.4046722811671524</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.3151138370314142</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.4351416552563698</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.5069787453446267</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.1535120588981975</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.5228057205494345</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.6941150691228563</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0.5649832784374171</v>
+      </c>
+      <c r="J147" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.1091236128864315</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.07270197131010912</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.1389350429786606</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.1664190034558099</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.1091236128864315</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.5228057205494345</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.6941150691228563</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.5649832784374171</v>
+      </c>
+      <c r="J148" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0.03451995224878428</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.07138263266464037</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.1237739398140667</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.0885246198349311</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.07116424715097848</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.5228057205494345</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.6941150691228563</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0.5649832784374171</v>
+      </c>
+      <c r="J149" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0.154403233005067</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.1389621043025032</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.08964975657692238</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.09049026116000256</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.1216263736947044</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.5228057205494345</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.6941150691228563</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.5649832784374171</v>
+      </c>
+      <c r="J150" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0.1217896328872727</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.1285197032495311</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.1135520163847572</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.1297315546584548</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.1217896328872727</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.5228057205494345</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.6941150691228563</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.5649832784374171</v>
+      </c>
+      <c r="J151" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.05849694209653942</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.04205503079421145</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.04378674855475594</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.04378674855475594</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.05849694209653942</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.5228057205494345</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.6941150691228563</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.5649832784374171</v>
+      </c>
+      <c r="J152" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0.1613624789843966</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.1875130678381321</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.1241197670327826</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.1212120710240032</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.1080013304679606</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.5228057205494345</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.6941150691228563</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0.5649832784374171</v>
+      </c>
+      <c r="J153" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.3389060357711295</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.1018116260691558</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.3038818042608827</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.272071954575475</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.2510662041791017</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.5956951645812585</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.5753513166538452</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0.5996471064610868</v>
+      </c>
+      <c r="J154" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0.240863380699804</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.1682780583161295</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.2027187086516432</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.1932740999858877</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.03725288698805641</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.5956951645812585</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.5753513166538452</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0.5996471064610868</v>
+      </c>
+      <c r="J155" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0.1946280444013127</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.1271627259602516</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.2258650849528542</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.2234352184665818</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.1946280444013127</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.5956951645812585</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0.5753513166538452</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0.5996471064610868</v>
+      </c>
+      <c r="J156" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0.07794078565339946</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.1038514384117958</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.1021878433613662</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.1027496016571589</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.09200902680208055</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.5956951645812585</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.5753513166538452</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.5996471064610868</v>
+      </c>
+      <c r="J157" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0.2597776280071897</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.1263311954919711</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.2741948804581972</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.2315010699268416</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.2774793589900211</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.5956951645812585</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.5753513166538452</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0.5996471064610868</v>
+      </c>
+      <c r="J158" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0.1294695693815136</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.04811088714286803</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.1404729823886789</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.1182891766173397</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.1294695693815136</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.5956951645812585</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0.5753513166538452</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.5996471064610868</v>
+      </c>
+      <c r="J159" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0.06311046272065782</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.05989242639131587</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.04969057024428822</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.04969057024428822</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.06311046272065782</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.5956951645812585</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0.5753513166538452</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.5996471064610868</v>
+      </c>
+      <c r="J160" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0.2082533600862596</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.09258032142639454</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.1908421564198522</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.2216925108621538</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.2247788571353766</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.5956951645812585</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0.5753513166538452</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0.5996471064610868</v>
+      </c>
+      <c r="J161" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0.2180648955539749</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.08706027231248914</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.2321687709268045</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.2527197815474796</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.177530033615153</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.9041349038895248</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0.5880167856114483</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0.9235606585585934</v>
+      </c>
+      <c r="J162" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0.3846748586674908</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.5192243995232181</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.4713713645855632</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.4373983571244494</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.3724471274821266</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.9041349038895248</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0.5880167856114483</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0.9235606585585934</v>
+      </c>
+      <c r="J163" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0.388456935694892</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.2222001994093245</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.3564628893197575</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.3555308325359032</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.388456935694892</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.9041349038895248</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0.5880167856114483</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0.9235606585585934</v>
+      </c>
+      <c r="J164" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0.2245207977462074</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.3578321077116824</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.3287946791588597</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.3233935774247843</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.2150876172000618</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.9041349038895248</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0.5880167856114483</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0.9235606585585934</v>
+      </c>
+      <c r="J165" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0.4046540495543469</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.2632366313000497</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.3459848110629072</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.3403228323814697</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.3357903368328466</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.9041349038895248</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.5880167856114483</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.9235606585585934</v>
+      </c>
+      <c r="J166" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0.3848422663432695</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.2971578865291178</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.3894930466049547</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.3415200361595155</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.3848422663432695</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.9041349038895248</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.5880167856114483</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0.9235606585585934</v>
+      </c>
+      <c r="J167" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0.08567218129197116</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.0286964302949368</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.07475237704568492</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.07500483151917819</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.08567218129197116</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.9041349038895248</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0.5880167856114483</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.9235606585585934</v>
+      </c>
+      <c r="J168" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>0.3695870244440546</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.1464978062437972</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.3691234119667347</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.4139972939127454</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.3538525453448257</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.9041349038895248</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0.5880167856114483</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0.9235606585585934</v>
+      </c>
+      <c r="J169" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>0.2026004933202099</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.07586201455489415</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.2555601770182828</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.234794001267548</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.1460873255185791</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.4820161927940509</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.528797593868821</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0.7011991435219693</v>
+      </c>
+      <c r="J170" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0.1892863728285012</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.2528944301207943</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.1476775878144827</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.1570653649298103</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.1224104275913661</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.4820161927940509</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0.528797593868821</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0.7011991435219693</v>
+      </c>
+      <c r="J171" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>0.1782420034043763</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.1187459642407397</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.1826007274202572</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.1845824815481994</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.1782420034043763</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.4820161927940509</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.528797593868821</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0.7011991435219693</v>
+      </c>
+      <c r="J172" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0.150129025185811</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.238498670183956</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.1731127225221337</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.1382053224577388</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.1571934024523675</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.4820161927940509</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0.528797593868821</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0.7011991435219693</v>
+      </c>
+      <c r="J173" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>0.1805398530638473</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.09861731356556341</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.1241721366625355</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.1600220133872861</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.1729597674630693</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.4820161927940509</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0.528797593868821</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0.7011991435219693</v>
+      </c>
+      <c r="J174" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0.1677303905091597</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.106751189330996</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.197211235237752</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.1933504122161534</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.1677303905091597</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.4820161927940509</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.528797593868821</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0.7011991435219693</v>
+      </c>
+      <c r="J175" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>0.03638887245289284</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.06261874465295109</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.04380658094847019</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.04629625017983714</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.03638887245289284</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.4820161927940509</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0.528797593868821</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0.7011991435219693</v>
+      </c>
+      <c r="J176" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>0.180760412894359</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.1285693458231937</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.1854524671423302</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.1826754480858818</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.1343573950466684</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.4820161927940509</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.528797593868821</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.7011991435219693</v>
+      </c>
+      <c r="J177" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>0.2371041523373219</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.06889068973710648</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0.261571382661008</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.1920392774130406</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.1739385560799709</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.7015727625417398</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0.5436433728541409</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0.7449848457925722</v>
+      </c>
+      <c r="J178" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>0.3053797722019565</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.2276474432108819</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.2608718714728639</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.2303003226848394</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.1872900026757263</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.7015727625417398</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0.5436433728541409</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0.7449848457925722</v>
+      </c>
+      <c r="J179" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0.1492746223506885</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.1356112317652438</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0.1545164313502612</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.1460219414383722</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.1492746223506885</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.7015727625417398</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0.5436433728541409</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0.7449848457925722</v>
+      </c>
+      <c r="J180" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0.07138489359205868</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.1717869413047061</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.1213701016615327</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.1329215121691126</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.06256671421360317</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.7015727625417398</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0.5436433728541409</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0.7449848457925722</v>
+      </c>
+      <c r="J181" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>0.2438156559262056</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.1350434620836371</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0.2385321386228116</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.2409872487261208</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.225211186415279</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.7015727625417398</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0.5436433728541409</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0.7449848457925722</v>
+      </c>
+      <c r="J182" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>0.1729149264648936</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.2277752812310148</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.1940094238833468</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.2100426368572271</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.1729149264648936</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.7015727625417398</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0.5436433728541409</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0.7449848457925722</v>
+      </c>
+      <c r="J183" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>0.04107703906054855</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.05259701143279294</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.02184395532710755</v>
+      </c>
+      <c r="E184" t="n">
+        <v>-0.007148551454029634</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.04107703906054855</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.7015727625417398</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0.5436433728541409</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0.7449848457925722</v>
+      </c>
+      <c r="J184" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>0.234988190366955</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.1665617826809613</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.2762717457240139</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.2145965008409657</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.2547467976769188</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.7015727625417398</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0.5436433728541409</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0.7449848457925722</v>
+      </c>
+      <c r="J185" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>0.3359010077737189</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.2332752707095013</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.3211075118533843</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0.2592146320684609</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.1953305198043412</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.451395244233819</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0.6326330545672857</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0.5423851990123941</v>
+      </c>
+      <c r="J186" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>0.2745238152451695</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.2678439274473309</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0.2827676195594072</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.27506133995923</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.1073192517167441</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.451395244233819</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0.6326330545672857</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0.5423851990123941</v>
+      </c>
+      <c r="J187" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0.1744402964446223</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.03753487292596183</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0.1384305549601876</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.118046289383447</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.1744402964446223</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.451395244233819</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0.6326330545672857</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0.5423851990123941</v>
+      </c>
+      <c r="J188" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>0.1325731089848927</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.1042369886219849</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.118101236514595</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.1093563752831831</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.1305071557254587</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.451395244233819</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0.6326330545672857</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0.5423851990123941</v>
+      </c>
+      <c r="J189" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>0.1547491826170779</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.1339876287986949</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.2210645973489823</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.1866751527022505</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.1605945440031717</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.451395244233819</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.6326330545672857</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.5423851990123941</v>
+      </c>
+      <c r="J190" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>0.148933551614902</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.1090834193341062</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.1405013477758246</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.1053342084817311</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.148933551614902</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.451395244233819</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.6326330545672857</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.5423851990123941</v>
+      </c>
+      <c r="J191" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>0.05363142820091843</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.1267540050616211</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.05363142820091843</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.05496667333715438</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.05363142820091843</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.451395244233819</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0.6326330545672857</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0.5423851990123941</v>
+      </c>
+      <c r="J192" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>0.2062137416918023</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.08830715154655977</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.209627787683393</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.1910997201328839</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.1672494761510574</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.451395244233819</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0.6326330545672857</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0.5423851990123941</v>
+      </c>
+      <c r="J193" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>0.3077465263540106</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.1050010223733255</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.2919159636455743</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.2719612698677198</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.2019701930548034</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.5740957616516302</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0.4813246905435733</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0.5255243505327007</v>
+      </c>
+      <c r="J194" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>0.2195874241610922</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.1276880087296359</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.2111219812141316</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0.2016416342587296</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.1765216360466413</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.5740957616516302</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0.4813246905435733</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0.5255243505327007</v>
+      </c>
+      <c r="J195" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>0.1423222462088836</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.06028617621345768</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.07330471666500674</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.07301251531568662</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.1423222462088836</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.5740957616516302</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.4813246905435733</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.5255243505327007</v>
+      </c>
+      <c r="J196" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>0.02563706128434982</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.03725182468598442</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.03811967319608461</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.05779359147582382</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.05359167765032348</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.5740957616516302</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.4813246905435733</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.5255243505327007</v>
+      </c>
+      <c r="J197" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>0.1546610472830612</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.02772298167804367</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.1347218584097604</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.114138155301441</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.1326723089846385</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.5740957616516302</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0.4813246905435733</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.5255243505327007</v>
+      </c>
+      <c r="J198" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>0.1309289424523933</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.1297241988509147</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.1353005623756521</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.1343080566750987</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.1309289424523933</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.5740957616516302</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0.4813246905435733</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.5255243505327007</v>
+      </c>
+      <c r="J199" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>0.03231982646410445</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.0830775239979394</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.03045758837457848</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.02542549384976886</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.03231982646410445</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.5740957616516302</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.4813246905435733</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0.5255243505327007</v>
+      </c>
+      <c r="J200" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>0.156861325208691</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.08355763034296852</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.1286704017848685</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.1146051709443459</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.1426806613003419</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.5740957616516302</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.4813246905435733</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.5255243505327007</v>
+      </c>
+      <c r="J201" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>0.2166601410482982</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.06794099558140695</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.2579112111983123</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0.2026986370262494</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.1495297655428498</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.5587529956577834</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.5199218501073292</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.8182199165062747</v>
+      </c>
+      <c r="J202" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>0.3452554783193038</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.3722342664704621</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.3054849457069972</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.3030188257730642</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.3643116993135408</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.5587529956577834</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0.5199218501073292</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.8182199165062747</v>
+      </c>
+      <c r="J203" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>0.2169599095258419</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.2178618894754846</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.1950929481105482</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.1986898221868758</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.2169599095258419</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.5587529956577834</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.5199218501073292</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.8182199165062747</v>
+      </c>
+      <c r="J204" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>0.1941059003236217</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.2763671699474729</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.2013450909454214</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0.1895092186740015</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.09802598918530614</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.5587529956577834</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0.5199218501073292</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0.8182199165062747</v>
+      </c>
+      <c r="J205" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>0.1887677410015326</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.1339101815721792</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.1449866432765359</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0.1356000538031987</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.1948671901187647</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0.5587529956577834</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0.5199218501073292</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0.8182199165062747</v>
+      </c>
+      <c r="J206" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>0.3193286677872317</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.2188057546185385</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.2917734415273714</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.2969409199078893</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.3193286677872317</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.5587529956577834</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0.5199218501073292</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0.8182199165062747</v>
+      </c>
+      <c r="J207" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>0.043855025517402</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.01663338299949313</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.0560290377818683</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.05058442135950691</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.043855025517402</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.5587529956577834</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.5199218501073292</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0.8182199165062747</v>
+      </c>
+      <c r="J208" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>0.2013718780117172</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.1627152316142884</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.1959968137561397</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.230619349387542</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.2069923104731752</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.5587529956577834</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.5199218501073292</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0.8182199165062747</v>
+      </c>
+      <c r="J209" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>0.3636332467679456</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.1490384202962792</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.2950348253798539</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0.2693306716008906</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.1880118689553944</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.6658781000428722</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.5543482318384028</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0.6623938632299222</v>
+      </c>
+      <c r="J210" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>0.511506386337431</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.4033884631771077</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.4187676552504371</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.3786441934066353</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.2557240510472091</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.6658781000428722</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.5543482318384028</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0.6623938632299222</v>
+      </c>
+      <c r="J211" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>0.2227724567330626</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.1332463796025057</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.1279813747008722</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.1219610289539246</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.2227724567330626</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.6658781000428722</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.5543482318384028</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0.6623938632299222</v>
+      </c>
+      <c r="J212" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>0.07458016217898422</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.2577229839485857</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.0943724754253616</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.0943724754253616</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.07458016217898422</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.6658781000428722</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.5543482318384028</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0.6623938632299222</v>
+      </c>
+      <c r="J213" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>0.2086984003109905</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.1798072756226131</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.2091646857700471</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.1278303458882498</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.1627197186179105</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.6658781000428722</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.5543482318384028</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0.6623938632299222</v>
+      </c>
+      <c r="J214" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>0.1626705522778797</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.192678218585002</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.2037862035044666</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0.2008609638394292</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.1626705522778797</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.6658781000428722</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0.5543482318384028</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0.6623938632299222</v>
+      </c>
+      <c r="J215" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>0.07738405067423185</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.1150044337388233</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.08260875943633299</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.09140368837437407</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.07738405067423185</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.6658781000428722</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.5543482318384028</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0.6623938632299222</v>
+      </c>
+      <c r="J216" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>0.2272065572843157</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.1893727525569856</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.1982299856983545</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.2238161813568923</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.2021109689130717</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.6658781000428722</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0.5543482318384028</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0.6623938632299222</v>
+      </c>
+      <c r="J217" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>0.1957346991664196</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.1547576412886666</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.1921474946546481</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.2224647988504982</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.160266889178245</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.4727266268864474</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0.5023700566319982</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0.4220896892715332</v>
+      </c>
+      <c r="J218" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>0.1457565647605345</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.1094244829656444</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.1506121603730206</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.1521121120562548</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.03275796078352474</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.4727266268864474</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.5023700566319982</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0.4220896892715332</v>
+      </c>
+      <c r="J219" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>0.1143012574895501</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.09855182413164473</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.1567203852971644</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.1473340371824337</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.1143012574895501</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.4727266268864474</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0.5023700566319982</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0.4220896892715332</v>
+      </c>
+      <c r="J220" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>0.1116736904072485</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.069696123761993</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.1181855617600337</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0.1190127529168551</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.1236496838140778</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.4727266268864474</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0.5023700566319982</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0.4220896892715332</v>
+      </c>
+      <c r="J221" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>0.07077703438391104</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.0744023045020588</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.08489961430657163</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.07545706489995443</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.0709010658260003</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.4727266268864474</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0.5023700566319982</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0.4220896892715332</v>
+      </c>
+      <c r="J222" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>0.1291326511695491</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.09027268076156809</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.1145187328730066</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0.1191940482631971</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.1291326511695491</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.4727266268864474</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0.5023700566319982</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0.4220896892715332</v>
+      </c>
+      <c r="J223" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>0.04976404889037932</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.07055586933358866</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.05953852148882773</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.05953852148882773</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.04976404889037932</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.4727266268864474</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0.5023700566319982</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0.4220896892715332</v>
+      </c>
+      <c r="J224" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>0.07651431721568441</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.1007442101681523</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.1056692806612352</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.1036450683034062</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.1095728679933514</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.4727266268864474</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0.5023700566319982</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0.4220896892715332</v>
+      </c>
+      <c r="J225" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>0.2538362635355081</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.09201850256117153</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.3091663426429686</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0.2966788693612004</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.1745614160784447</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.4488485729765657</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.4715094842377929</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0.4687920803466025</v>
+      </c>
+      <c r="J226" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>0.2008764282018448</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.1005949433300333</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.1822299714136691</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.1917175178912647</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.05182260457158274</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.4488485729765657</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.4715094842377929</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0.4687920803466025</v>
+      </c>
+      <c r="J227" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>0.2053176246375283</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.04532339585883018</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.1661579214893376</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.1686140442880664</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.2053176246375283</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0.4488485729765657</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0.4715094842377929</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0.4687920803466025</v>
+      </c>
+      <c r="J228" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>0.05297740587293746</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.09344258418606527</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.05956024957594456</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.05956024957594456</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.06898572777750125</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.4488485729765657</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0.4715094842377929</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0.4687920803466025</v>
+      </c>
+      <c r="J229" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>0.1881867091479723</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.08373519591409465</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.1609359844514076</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0.1525806900949434</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.1751774536418194</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.4488485729765657</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0.4715094842377929</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0.4687920803466025</v>
+      </c>
+      <c r="J230" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>0.1313613442000157</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.005345433182403408</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.1558558935900112</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.1187135967178529</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.1313613442000157</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0.4488485729765657</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0.4715094842377929</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0.4687920803466025</v>
+      </c>
+      <c r="J231" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>0.08399665994592675</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0.03324351869038445</v>
+      </c>
+      <c r="D232" t="n">
+        <v>0.06552144906447557</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.07779732740519876</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.08399665994592675</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0.4488485729765657</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0.4715094842377929</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0.4687920803466025</v>
+      </c>
+      <c r="J232" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>0.1748288225316594</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.02706107162487932</v>
+      </c>
+      <c r="D233" t="n">
+        <v>0.1498795565681516</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0.1265743242735863</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.1750003321906576</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0.4488485729765657</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0.4715094842377929</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0.4687920803466025</v>
+      </c>
+      <c r="J233" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>0.4172740525599544</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.09597592554896339</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.3627502056843662</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0.3634623116098753</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.2045001905868478</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0.492410073421414</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0.6353643450039824</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0.5627903405874105</v>
+      </c>
+      <c r="J234" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>0.2979500730381999</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.2006715021450345</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.2789735183561917</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.270080654791404</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.2255172565407545</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0.492410073421414</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0.6353643450039824</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0.5627903405874105</v>
+      </c>
+      <c r="J235" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>0.1075627375020725</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.04089770883246521</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.0965772446095329</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.1264606694875065</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.1075627375020725</v>
+      </c>
+      <c r="G236" t="n">
+        <v>0.492410073421414</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0.6353643450039824</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0.5627903405874105</v>
+      </c>
+      <c r="J236" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>0.1202126970719178</v>
+      </c>
+      <c r="C237" t="n">
+        <v>-0.001882350738316414</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.1010847156715095</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0.08489492832084547</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.1217583798499368</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0.492410073421414</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0.6353643450039824</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0.5627903405874105</v>
+      </c>
+      <c r="J237" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>0.1138514949304015</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.09056735042493169</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.1514786929343398</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.1517783334642006</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.1419096982534124</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0.492410073421414</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0.6353643450039824</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0.5627903405874105</v>
+      </c>
+      <c r="J238" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>0.1364371203692686</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.07439760330050037</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.1847703930915751</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.1266576003658167</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.1364371203692686</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0.492410073421414</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0.6353643450039824</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0.5627903405874105</v>
+      </c>
+      <c r="J239" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>0.03989555817004296</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.05473240089433752</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.02372563424617579</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0.01795908220476713</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.03989555817004296</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0.492410073421414</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0.6353643450039824</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0.5627903405874105</v>
+      </c>
+      <c r="J240" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>0.09192390781952835</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.07507043381334463</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.09846916848637707</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.07965444518946427</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.09541252410716625</v>
+      </c>
+      <c r="G241" t="n">
+        <v>0.492410073421414</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0.6353643450039824</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0.5627903405874105</v>
+      </c>
+      <c r="J241" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>0.3566683506721377</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.1583413551604595</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.2573206718244058</v>
+      </c>
+      <c r="E242" t="n">
+        <v>0.2531256115307806</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.2075050546228835</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0.4706305315088286</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0.5110648454497744</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0.4772487811616243</v>
+      </c>
+      <c r="J242" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>0.3484508647657094</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.1158158910393906</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.3307746496111214</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0.3310506812124496</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.1725962584402695</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0.4706305315088286</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0.5110648454497744</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0.4772487811616243</v>
+      </c>
+      <c r="J243" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>0.1535288973115573</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.08253511803402863</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.1780562174965895</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.1621574266802973</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.1535288973115573</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0.4706305315088286</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0.5110648454497744</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0.4772487811616243</v>
+      </c>
+      <c r="J244" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>0.1239309547251995</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.09112442866283629</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.08648201842875408</v>
+      </c>
+      <c r="E245" t="n">
+        <v>0.09824850290715022</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.137476045895822</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.4706305315088286</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0.5110648454497744</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0.4772487811616243</v>
+      </c>
+      <c r="J245" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>0.1711208688627817</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.09716261100499138</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.1836846948431897</v>
+      </c>
+      <c r="E246" t="n">
+        <v>0.1559627276569192</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.1345372846969387</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0.4706305315088286</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0.5110648454497744</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0.4772487811616243</v>
+      </c>
+      <c r="J246" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>0.1451900347316792</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.06313176267157153</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.1915187279942408</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.15423876141198</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0.1451900347316792</v>
+      </c>
+      <c r="G247" t="n">
+        <v>0.4706305315088286</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0.5110648454497744</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0.4772487811616243</v>
+      </c>
+      <c r="J247" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>0.08346384849339947</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.08869283673354753</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.08841710702414529</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.09927677503095181</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0.08346384849339947</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0.4706305315088286</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0.5110648454497744</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0.4772487811616243</v>
+      </c>
+      <c r="J248" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>0.1582619774176068</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.1013438420310612</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.1386589391226471</v>
+      </c>
+      <c r="E249" t="n">
+        <v>0.1733196894890821</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0.1435117182539294</v>
+      </c>
+      <c r="G249" t="n">
+        <v>0.4706305315088286</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0.5110648454497744</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0.4772487811616243</v>
+      </c>
+      <c r="J249" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>0.3356152710274377</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.06363563384494438</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.2817192196188026</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.2871107249422855</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.1773856262033395</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0.5204099638046362</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0.4548014031111311</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0.4686782046844336</v>
+      </c>
+      <c r="J250" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>0.1482227372833999</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.1127633408619926</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.2027065336694218</v>
+      </c>
+      <c r="E251" t="n">
+        <v>0.1931488641391031</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.08225269848665256</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0.5204099638046362</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0.4548014031111311</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0.4686782046844336</v>
+      </c>
+      <c r="J251" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>0.07663934792113056</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.05366303582117047</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.05087151598055913</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.06876551679604448</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0.07663934792113056</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0.5204099638046362</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0.4548014031111311</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0.4686782046844336</v>
+      </c>
+      <c r="J252" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>0.05227651606030224</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.03269427258201801</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.09241697242525809</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.09708029727743876</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0.06204471880912597</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0.5204099638046362</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0.4548014031111311</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0.4686782046844336</v>
+      </c>
+      <c r="J253" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>0.1650410792248734</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0.01496774193548387</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0.1058779670562478</v>
+      </c>
+      <c r="E254" t="n">
+        <v>0.1185688325746565</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.1535835887951372</v>
+      </c>
+      <c r="G254" t="n">
+        <v>0.5204099638046362</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0.4548014031111311</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0.4686782046844336</v>
+      </c>
+      <c r="J254" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>0.1257507420992206</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0.01327469535923524</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.1266449499246144</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.1018909901529129</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0.1257507420992206</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0.5204099638046362</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0.4548014031111311</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0.4686782046844336</v>
+      </c>
+      <c r="J255" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>0.03562682894271375</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0.04653206451562609</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.0418665248577165</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0.0418665248577165</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0.03562682894271375</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0.5204099638046362</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0.4548014031111311</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0.4686782046844336</v>
+      </c>
+      <c r="J256" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>0.09568187118056545</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0.08840870724706731</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.1456293743008901</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.1848569000667629</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.09687307414666083</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0.5204099638046362</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0.4548014031111311</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0.4686782046844336</v>
+      </c>
+      <c r="J257" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>kamada_kawai</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>0.2979616913604892</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.08471984480870395</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.3181988309040815</v>
+      </c>
+      <c r="E258" t="n">
+        <v>0.2136617968156634</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.2016485421096913</v>
+      </c>
+      <c r="G258" t="n">
+        <v>0.5940205116047885</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0.643879180891037</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0.5396818529202824</v>
+      </c>
+      <c r="J258" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>spring</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>0.1867096282060731</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.05080309037581747</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0.1852502656965578</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.1603727802440731</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.09635579900534738</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0.5940205116047885</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0.643879180891037</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0.5396818529202824</v>
+      </c>
+      <c r="J259" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>davidson_harel</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>0.1255660848433341</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.04036764953812463</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.1205505881013057</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.0807533894947966</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0.1255660848433341</v>
+      </c>
+      <c r="G260" t="n">
+        <v>0.5940205116047885</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0.643879180891037</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0.5396818529202824</v>
+      </c>
+      <c r="J260" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>drl</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>0.06852838818691967</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.01972992959583789</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.04471619804650776</v>
+      </c>
+      <c r="E261" t="n">
+        <v>0.0610873770234442</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0.05881813796342382</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0.5940205116047885</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0.643879180891037</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0.5396818529202824</v>
+      </c>
+      <c r="J261" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>fruchterman_reingold</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>0.1176300925572222</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.04478872488015215</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.1011235259423016</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.1157419969487473</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.1029711561544838</v>
+      </c>
+      <c r="G262" t="n">
+        <v>0.5940205116047885</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0.643879180891037</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0.5396818529202824</v>
+      </c>
+      <c r="J262" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>graphopt</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>0.1155891023909786</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.0273282040999404</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.1012514705184269</v>
+      </c>
+      <c r="E263" t="n">
+        <v>0.1096047364333822</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0.1155891023909786</v>
+      </c>
+      <c r="G263" t="n">
+        <v>0.5940205116047885</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0.643879180891037</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0.5396818529202824</v>
+      </c>
+      <c r="J263" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>lgl</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>0.05947914617320308</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.0717596743943231</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.07083814854582952</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.07083814854582952</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.05947914617320308</v>
+      </c>
+      <c r="G264" t="n">
+        <v>0.5940205116047885</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0.643879180891037</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0.5396818529202824</v>
+      </c>
+      <c r="J264" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>mds</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>0.142322322176677</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.06257178582018644</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.09721269510240187</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0.06831080260809602</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0.06436218424115811</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.5940205116047885</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0.643879180891037</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0.5396818529202824</v>
+      </c>
+      <c r="J265" t="n">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
